--- a/Perceptron_RU_Uninter.xlsx
+++ b/Perceptron_RU_Uninter.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e16b601b2ec7f0ec/Ambiente de Trabalho/Perceptron_uninter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7B16B235F726F496FA6C78BC7CB2A5F9AC2F1D32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EFD85B-867F-4301-9690-1A6D7FC3E58F}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>X1</t>
   </si>
@@ -60,17 +77,32 @@
     <t>W7</t>
   </si>
   <si>
-    <t>Resultado perceptron</t>
-  </si>
-  <si>
-    <t>taxa de aprendizagem</t>
+    <t>Saída esperada</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Taxa aprendizado</t>
+  </si>
+  <si>
+    <t>W bias</t>
+  </si>
+  <si>
+    <t>Novos valores dos pesos</t>
+  </si>
+  <si>
+    <t>ERRO</t>
+  </si>
+  <si>
+    <t>Saída Perceptron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +114,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,14 +145,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,14 +175,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,140 +468,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="4">
+        <f>M6 - L6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <f>IF(SUMPRODUCT(B3:H3, B6:H6) + J3*J6 &gt; 0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f>B6 + ($L$3 * $M$3 * B3)</f>
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:H9" si="0">C6 + ($L$3 * $M$3 * C3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <f>IF(SUMPRODUCT(A$2:G$2,A$5:G$5) * I2 &gt; 0, 1, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f>J6 + ($L$3 * $M$3 * J3)</f>
+        <v>0.13</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -561,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Perceptron_RU_Uninter.xlsx
+++ b/Perceptron_RU_Uninter.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e16b601b2ec7f0ec/Ambiente de Trabalho/Perceptron_uninter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7B16B235F726F496FA6C78BC7CB2A5F9AC2F1D32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EFD85B-867F-4301-9690-1A6D7FC3E58F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>X1</t>
   </si>
@@ -96,13 +90,43 @@
   </si>
   <si>
     <t>Saída Perceptron</t>
+  </si>
+  <si>
+    <t>Entrada testada</t>
+  </si>
+  <si>
+    <t>Wn1</t>
+  </si>
+  <si>
+    <t>Wn2</t>
+  </si>
+  <si>
+    <t>Wn3</t>
+  </si>
+  <si>
+    <t>Wn4</t>
+  </si>
+  <si>
+    <t>Wn5</t>
+  </si>
+  <si>
+    <t>Wn6</t>
+  </si>
+  <si>
+    <t>Wn7</t>
+  </si>
+  <si>
+    <t>Saída desejada</t>
+  </si>
+  <si>
+    <t>WnBias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +148,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,11 +193,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +232,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,9 +262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +302,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -295,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,20 +547,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -496,27 +580,27 @@
       <c r="L1" s="4"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4"/>
@@ -530,29 +614,30 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
+      <c r="H3" s="10">
+        <v>0</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
@@ -566,8 +651,9 @@
         <f>M6 - L6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -582,7 +668,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -617,43 +703,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
-        <v>0.03</v>
+        <v>-0.27</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0.03</v>
+        <v>-0.47</v>
       </c>
       <c r="E6" s="4">
-        <v>0.01</v>
+        <v>-0.39</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="4">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f>IF(SUMPRODUCT(B3:H3, B6:H6) + J3*J6 &gt; 0, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -667,61 +753,61 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <f>B6 + ($L$3 * $M$3 * B3)</f>
-        <v>0.03</v>
+        <v>-0.27</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:H9" si="0">C6 + ($L$3 * $M$3 * C3)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>-0.47</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>-0.39</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <f>J6 + ($L$3 * $M$3 * J3)</f>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -735,7 +821,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -747,95 +833,1659 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N11">
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="O11">
+        <v>-0.19</v>
+      </c>
+      <c r="P11">
+        <v>-0.4</v>
+      </c>
+      <c r="Q11">
+        <v>0.8</v>
+      </c>
+      <c r="R11">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>4742051</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>3742051</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.47000000000000003</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H15" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>4741051</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="7">
+        <v>4742151</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>4742052</v>
+      </c>
+      <c r="B18" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>5742051</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>4743051</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>4742053</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F21" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>4744051</v>
+      </c>
+      <c r="B22" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E22" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4742054</v>
+      </c>
+      <c r="B23" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E23" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3743051</v>
+      </c>
+      <c r="B24" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4741052</v>
+      </c>
+      <c r="B25" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>5742151</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E26" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4742049</v>
+      </c>
+      <c r="B27" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E27" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4742062</v>
+      </c>
+      <c r="B28" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E28" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F28" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>4745051</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E29" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>6742051</v>
+      </c>
+      <c r="B30" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E30" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F30" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>4742055</v>
+      </c>
+      <c r="B31" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E31" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4742056</v>
+      </c>
+      <c r="B32" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E32" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F32" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>7742051</v>
+      </c>
+      <c r="B33" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E33" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F33" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>4742057</v>
+      </c>
+      <c r="B34" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E34" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>4742058</v>
+      </c>
+      <c r="B35" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E35" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F35" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>4748051</v>
+      </c>
+      <c r="B36" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E36" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F36" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>4742059</v>
+      </c>
+      <c r="B37" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E37" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F37" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1742051</v>
+      </c>
+      <c r="B38" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E38" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F38" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4740061</v>
+      </c>
+      <c r="B39" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E39" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F39" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>8742051</v>
+      </c>
+      <c r="B40" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E40" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F40" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>4742091</v>
+      </c>
+      <c r="B41" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E41" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F41" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H41" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>9742051</v>
+      </c>
+      <c r="B42" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E42" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F42" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>4741050</v>
+      </c>
+      <c r="B43" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E43" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F43" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>6742151</v>
+      </c>
+      <c r="B44" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E44" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F44" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>2742051</v>
+      </c>
+      <c r="B45" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E45" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F45" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>3742050</v>
+      </c>
+      <c r="B46" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E46" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F46" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>3741051</v>
+      </c>
+      <c r="B47" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E47" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F47" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>4740021</v>
+      </c>
+      <c r="B48" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E48" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F48" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>6743051</v>
+      </c>
+      <c r="B49" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E49" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F49" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H49" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>4740051</v>
+      </c>
+      <c r="B50" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E50" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F50" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>4740001</v>
+      </c>
+      <c r="B51" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E51" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F51" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>2742151</v>
+      </c>
+      <c r="B52" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E52" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>5742050</v>
+      </c>
+      <c r="B53" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E53" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F53" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>4749991</v>
+      </c>
+      <c r="B54" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E54" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F54" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H54" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>4749992</v>
+      </c>
+      <c r="B55" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E55" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F55" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H55" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>4749993</v>
+      </c>
+      <c r="B56" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E56" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F56" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H56" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>4749994</v>
+      </c>
+      <c r="B57" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E57" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F57" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>4749995</v>
+      </c>
+      <c r="B58" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E58" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F58" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>4749996</v>
+      </c>
+      <c r="B59" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E59" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F59" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H59" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>4749997</v>
+      </c>
+      <c r="B60" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E60" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F60" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H60" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>4749998</v>
+      </c>
+      <c r="B61" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E61" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F61" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H61" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>4749999</v>
+      </c>
+      <c r="B62" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="E62" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -844,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -856,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
